--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig@s.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="C3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
